--- a/src/Attribution rôles version simplifiée.xlsx
+++ b/src/Attribution rôles version simplifiée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\David\Etudes\Ecole_d'ing\3A\Clubs\Théâtre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Etudes\Ecole d'ing\3A\Clubs\Théâtre\Operations-research-for-role-casting\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E202D20-67A3-4D3A-A0B5-32B060849CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AD14B-33D9-4059-8C83-F29A93052933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{E4CA9F98-073E-4046-8C5E-DB530A020539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E4CA9F98-073E-4046-8C5E-DB530A020539}"/>
   </bookViews>
   <sheets>
     <sheet name="Préférences rôles" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Distribution" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Distribution!$H$2:$K$11,Distribution!$S$2:$U$11,Distribution!$X$2:$X$11,Distribution!$AA$2:$AI$11,Distribution!$AU$2:$AV$11</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Distribution!$H$2:$K$7,Distribution!$AA$2:$AI$7,Distribution!$AU$2:$AV$7</definedName>
     <definedName name="solver_adj" localSheetId="0">#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0">0.0001</definedName>
@@ -31,16 +31,17 @@
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="2" hidden="1">Distribution!$H$2:$AV$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Distribution!$X$2:$X$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Distribution!$H$2:$K$7</definedName>
     <definedName name="solver_lhs1" localSheetId="0">#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Distribution!$S$2:$U$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Distribution!$AA$2:$AI$7</definedName>
     <definedName name="solver_lhs2" localSheetId="0">#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Distribution!$H$2:$K$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Distribution!$AW$2:$AW$18</definedName>
     <definedName name="solver_lhs3" localSheetId="0">#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Distribution!$H$21:$AV$21</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Distribution!$AA$2:$AI$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Distribution!$AU$2:$AV$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Distribution!$AW$2:$AW$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Distribution!$AU$2:$AV$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Distribution!$H$21:$AV$21</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Distribution!$S$2:$U$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Distribution!$S$2:$U$7</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">Distribution!$AW$2:$AW$18</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0">2147483647</definedName>
@@ -54,7 +55,7 @@
     <definedName name="solver_neg" localSheetId="0">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="0">3</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0">1</definedName>
@@ -69,28 +70,30 @@
     <definedName name="solver_rel1" localSheetId="0">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0">5</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs0" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">binaire</definedName>
     <definedName name="solver_rhs1" localSheetId="0">1</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">binaire</definedName>
     <definedName name="solver_rhs2" localSheetId="0">"binaire"</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs3" localSheetId="0">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Distribution!$H$22:$AV$22</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">binaire</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0">2</definedName>
@@ -136,7 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>David Forlen:</t>
         </r>
@@ -145,7 +148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Permet de trier en fonction des comédiens auquel on a fixé manuellement les rôles
@@ -161,7 +164,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>David Forlen:</t>
         </r>
@@ -170,7 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Indique le nombre de conflits entre les rôles attribués au comédien.
@@ -186,7 +189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>David Forlen:</t>
         </r>
@@ -195,7 +198,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Somme des points des rôles attribués au comédiens (les points viennent des préférences du comédien)</t>
@@ -251,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>Horodateur</t>
   </si>
@@ -544,9 +547,6 @@
     <t>Modèle 1 :</t>
   </si>
   <si>
-    <t>Rôles verrouillés</t>
-  </si>
-  <si>
     <t>prof</t>
   </si>
   <si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>Rôles attribués</t>
+  </si>
+  <si>
+    <t>Rôles verrouillés (attribués manuellements)</t>
+  </si>
+  <si>
+    <t>CONTRAINTE : NB de comédiens pour le rôle</t>
   </si>
 </sst>
 </file>
@@ -702,14 +708,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1249,9 +1255,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1277,9 +1280,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1289,6 +1289,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1622,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -1630,21 +1634,21 @@
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="36" width="10.85546875" customWidth="1"/>
-    <col min="37" max="43" width="6.5703125" customWidth="1"/>
-    <col min="44" max="44" width="10.5703125" customWidth="1"/>
-    <col min="45" max="45" width="34.42578125" customWidth="1"/>
-    <col min="46" max="66" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="12" width="13.7265625" customWidth="1"/>
+    <col min="13" max="36" width="10.81640625" customWidth="1"/>
+    <col min="37" max="43" width="6.54296875" customWidth="1"/>
+    <col min="44" max="44" width="10.54296875" customWidth="1"/>
+    <col min="45" max="45" width="34.453125" customWidth="1"/>
+    <col min="46" max="66" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1829,7 @@
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43827.001400462963</v>
       </c>
@@ -1941,13 +1945,13 @@
       <c r="AM2" s="3">
         <v>1000</v>
       </c>
-      <c r="AN2" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="47">
+      <c r="AN2" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="46">
         <v>2</v>
       </c>
       <c r="AQ2">
@@ -1963,7 +1967,7 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43822.355069444442</v>
       </c>
@@ -2079,13 +2083,13 @@
       <c r="AM3" s="4">
         <v>2</v>
       </c>
-      <c r="AN3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="47">
+      <c r="AN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="46">
         <v>2</v>
       </c>
       <c r="AQ3">
@@ -2101,7 +2105,7 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43820.84511574074</v>
       </c>
@@ -2217,13 +2221,13 @@
       <c r="AM4" s="7">
         <v>3</v>
       </c>
-      <c r="AN4" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="47">
+      <c r="AN4" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="46">
         <v>2</v>
       </c>
       <c r="AQ4">
@@ -2239,7 +2243,7 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43829.980740740742</v>
       </c>
@@ -2355,13 +2359,13 @@
       <c r="AM5" s="5">
         <v>5</v>
       </c>
-      <c r="AN5" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO5" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="47">
+      <c r="AN5" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="46">
         <v>2</v>
       </c>
       <c r="AQ5">
@@ -2377,7 +2381,7 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43823.648217592592</v>
       </c>
@@ -2493,13 +2497,13 @@
       <c r="AM6" s="8">
         <v>4</v>
       </c>
-      <c r="AN6" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="47">
+      <c r="AN6" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="46">
         <v>2</v>
       </c>
       <c r="AQ6">
@@ -2515,7 +2519,7 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43818.289189814815</v>
       </c>
@@ -2631,13 +2635,13 @@
       <c r="AM7" s="4">
         <v>2</v>
       </c>
-      <c r="AN7" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO7" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP7" s="47">
+      <c r="AN7" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="46">
         <v>2</v>
       </c>
       <c r="AQ7">
@@ -2653,7 +2657,7 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43825.445196759261</v>
       </c>
@@ -2769,13 +2773,13 @@
       <c r="AM8" s="3">
         <v>1000</v>
       </c>
-      <c r="AN8" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO8" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP8" s="47">
+      <c r="AN8" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="46">
         <v>2</v>
       </c>
       <c r="AQ8">
@@ -2791,7 +2795,7 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43828.812337962961</v>
       </c>
@@ -2907,13 +2911,13 @@
       <c r="AM9" s="8">
         <v>4</v>
       </c>
-      <c r="AN9" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO9" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP9" s="47">
+      <c r="AN9" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="46">
         <v>2</v>
       </c>
       <c r="AQ9" s="35">
@@ -2929,7 +2933,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45" t="s">
@@ -3043,13 +3047,13 @@
       <c r="AM10" s="45">
         <v>6</v>
       </c>
-      <c r="AN10" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO10" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP10" s="47">
+      <c r="AN10" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="46">
         <v>2</v>
       </c>
       <c r="AQ10">
@@ -3065,7 +3069,7 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43817.972650462965</v>
       </c>
@@ -3181,13 +3185,13 @@
       <c r="AM11" s="3">
         <v>1000</v>
       </c>
-      <c r="AN11" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO11" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP11" s="47">
+      <c r="AN11" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="46">
         <v>2</v>
       </c>
       <c r="AQ11">
@@ -3203,7 +3207,7 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43829.79896990741</v>
       </c>
@@ -3319,13 +3323,13 @@
       <c r="AM12" s="7">
         <v>3</v>
       </c>
-      <c r="AN12" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO12" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP12" s="47">
+      <c r="AN12" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="46">
         <v>2</v>
       </c>
       <c r="AQ12">
@@ -3341,7 +3345,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43821.519375000003</v>
       </c>
@@ -3457,13 +3461,13 @@
       <c r="AM13" s="5">
         <v>5</v>
       </c>
-      <c r="AN13" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO13" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP13" s="47">
+      <c r="AN13" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="46">
         <v>2</v>
       </c>
       <c r="AQ13">
@@ -3479,7 +3483,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43817.978078703702</v>
       </c>
@@ -3595,13 +3599,13 @@
       <c r="AM14" s="7">
         <v>3</v>
       </c>
-      <c r="AN14" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO14" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP14" s="47">
+      <c r="AN14" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="46">
         <v>2</v>
       </c>
       <c r="AQ14">
@@ -3617,7 +3621,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43829.684004629627</v>
       </c>
@@ -3733,13 +3737,13 @@
       <c r="AM15" s="8">
         <v>4</v>
       </c>
-      <c r="AN15" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO15" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP15" s="47">
+      <c r="AN15" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="46">
         <v>2</v>
       </c>
       <c r="AQ15">
@@ -3755,7 +3759,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43825.037418981483</v>
       </c>
@@ -3871,13 +3875,13 @@
       <c r="AM16" s="5">
         <v>5</v>
       </c>
-      <c r="AN16" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO16" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP16" s="47">
+      <c r="AN16" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="46">
         <v>2</v>
       </c>
       <c r="AQ16">
@@ -3893,7 +3897,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43818.011886574073</v>
       </c>
@@ -4009,13 +4013,13 @@
       <c r="AM17" s="8">
         <v>4</v>
       </c>
-      <c r="AN17" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO17" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP17" s="47">
+      <c r="AN17" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="46">
         <v>2</v>
       </c>
       <c r="AQ17">
@@ -4031,129 +4035,129 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A18" s="56">
         <v>43825.390636574077</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="48">
-        <v>4</v>
-      </c>
-      <c r="E18" s="48">
-        <v>4</v>
-      </c>
-      <c r="F18" s="48">
-        <v>4</v>
-      </c>
-      <c r="G18" s="48">
-        <v>4</v>
-      </c>
-      <c r="H18" s="50">
-        <v>5</v>
-      </c>
-      <c r="I18" s="50">
-        <v>5</v>
-      </c>
-      <c r="J18" s="50">
-        <v>5</v>
-      </c>
-      <c r="K18" s="50">
-        <v>5</v>
-      </c>
-      <c r="L18" s="50">
-        <v>5</v>
-      </c>
-      <c r="M18" s="48">
-        <v>4</v>
-      </c>
-      <c r="N18" s="48">
-        <v>4</v>
-      </c>
-      <c r="O18" s="48">
-        <v>4</v>
-      </c>
-      <c r="P18" s="48">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="48">
-        <v>4</v>
-      </c>
-      <c r="R18" s="50">
-        <v>5</v>
-      </c>
-      <c r="S18" s="49">
+      <c r="D18" s="47">
+        <v>4</v>
+      </c>
+      <c r="E18" s="47">
+        <v>4</v>
+      </c>
+      <c r="F18" s="47">
+        <v>4</v>
+      </c>
+      <c r="G18" s="47">
+        <v>4</v>
+      </c>
+      <c r="H18" s="49">
+        <v>5</v>
+      </c>
+      <c r="I18" s="49">
+        <v>5</v>
+      </c>
+      <c r="J18" s="49">
+        <v>5</v>
+      </c>
+      <c r="K18" s="49">
+        <v>5</v>
+      </c>
+      <c r="L18" s="49">
+        <v>5</v>
+      </c>
+      <c r="M18" s="47">
+        <v>4</v>
+      </c>
+      <c r="N18" s="47">
+        <v>4</v>
+      </c>
+      <c r="O18" s="47">
+        <v>4</v>
+      </c>
+      <c r="P18" s="47">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="47">
+        <v>4</v>
+      </c>
+      <c r="R18" s="49">
+        <v>5</v>
+      </c>
+      <c r="S18" s="48">
         <v>6</v>
       </c>
-      <c r="T18" s="48">
-        <v>4</v>
-      </c>
-      <c r="U18" s="49">
+      <c r="T18" s="47">
+        <v>4</v>
+      </c>
+      <c r="U18" s="48">
         <v>6</v>
       </c>
-      <c r="V18" s="52">
-        <v>3</v>
-      </c>
-      <c r="W18" s="53">
-        <v>2</v>
-      </c>
-      <c r="X18" s="48">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="50">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="47">
+      <c r="V18" s="51">
+        <v>3</v>
+      </c>
+      <c r="W18" s="52">
+        <v>2</v>
+      </c>
+      <c r="X18" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="49">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="46">
         <v>1000</v>
       </c>
-      <c r="AB18" s="50">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="48">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="48">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="48">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="49">
+      <c r="AB18" s="49">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="47">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="47">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="47">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="48">
         <v>6</v>
       </c>
-      <c r="AG18" s="49">
+      <c r="AG18" s="48">
         <v>6</v>
       </c>
-      <c r="AH18" s="49">
+      <c r="AH18" s="48">
         <v>6</v>
       </c>
-      <c r="AI18" s="49">
+      <c r="AI18" s="48">
         <v>6</v>
       </c>
-      <c r="AJ18" s="49">
+      <c r="AJ18" s="48">
         <v>6</v>
       </c>
-      <c r="AK18" s="49">
+      <c r="AK18" s="48">
         <v>6</v>
       </c>
-      <c r="AL18" s="49">
+      <c r="AL18" s="48">
         <v>6</v>
       </c>
-      <c r="AM18" s="49">
+      <c r="AM18" s="48">
         <v>6</v>
       </c>
-      <c r="AN18" s="47">
-        <v>2</v>
-      </c>
-      <c r="AO18" s="47">
-        <v>2</v>
-      </c>
-      <c r="AP18" s="47">
+      <c r="AN18" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="46">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="46">
         <v>2</v>
       </c>
       <c r="AQ18">
@@ -4181,20 +4185,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="17" width="8.140625" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" customWidth="1"/>
-    <col min="19" max="25" width="8.140625" customWidth="1"/>
-    <col min="26" max="27" width="7.140625" customWidth="1"/>
-    <col min="28" max="44" width="8.140625" customWidth="1"/>
-    <col min="45" max="46" width="11.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="17" width="8.1796875" customWidth="1"/>
+    <col min="18" max="18" width="7.1796875" customWidth="1"/>
+    <col min="19" max="25" width="8.1796875" customWidth="1"/>
+    <col min="26" max="27" width="7.1796875" customWidth="1"/>
+    <col min="28" max="44" width="8.1796875" customWidth="1"/>
+    <col min="45" max="46" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
@@ -4310,14 +4314,14 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO1" s="57" t="s">
+      <c r="AN1" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="55" t="s">
         <v>101</v>
-      </c>
-      <c r="AP1" s="57" t="s">
-        <v>102</v>
       </c>
       <c r="AQ1" s="12" t="s">
         <v>39</v>
@@ -4329,7 +4333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -4863,7 +4867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5.0999999999999996</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5.2</v>
       </c>
@@ -5400,7 +5404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -6295,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>12.1</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>12.2</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>86</v>
       </c>
@@ -7183,7 +7187,7 @@
       </c>
       <c r="AS17" s="18"/>
     </row>
-    <row r="19" spans="1:46" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="63.5" x14ac:dyDescent="0.35">
       <c r="D19" s="12" t="str">
         <f t="shared" ref="D19:AR19" si="5">D1</f>
         <v>Alice de la réalité 1</v>
@@ -7352,7 +7356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C20" s="12" t="str">
         <f t="shared" ref="C20:C60" ca="1" si="6">OFFSET(D$1,0,ROW() - ROW(C$20))</f>
         <v>Alice de la réalité 1</v>
@@ -7527,7 +7531,7 @@
       </c>
       <c r="AT20" s="23"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C21" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice de la réalité 2</v>
@@ -7702,7 +7706,7 @@
       </c>
       <c r="AT21" s="23"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C22" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice de la réalité 3</v>
@@ -7877,7 +7881,7 @@
       </c>
       <c r="AT22" s="23"/>
     </row>
-    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C23" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice de la réalité 4</v>
@@ -8052,7 +8056,7 @@
       </c>
       <c r="AT23" s="23"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C24" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice des rêves 1</v>
@@ -8227,7 +8231,7 @@
       </c>
       <c r="AT24" s="23"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C25" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice des rêves 2</v>
@@ -8402,7 +8406,7 @@
       </c>
       <c r="AT25" s="23"/>
     </row>
-    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C26" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice des rêves 3</v>
@@ -8577,7 +8581,7 @@
       </c>
       <c r="AT26" s="23"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C27" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Alice des rêves 4</v>
@@ -8751,7 +8755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C28" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Capitaine Dodo</v>
@@ -8925,7 +8929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C29" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Chenille</v>
@@ -9099,7 +9103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C30" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Damien</v>
@@ -9273,7 +9277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C31" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Dinon</v>
@@ -9447,7 +9451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C32" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Dioui</v>
@@ -9621,7 +9625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C33" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Diouinon</v>
@@ -9795,7 +9799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C34" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Dorian</v>
@@ -9969,7 +9973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C35" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>La mère d’Alice</v>
@@ -10143,7 +10147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C36" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>La Princesse Rouge</v>
@@ -10317,7 +10321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C37" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>La Reine Rouge</v>
@@ -10491,7 +10495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C38" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Lapin</v>
@@ -10665,7 +10669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C39" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Le Chapelier Fou</v>
@@ -10839,7 +10843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="3:45" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:45" ht="26" x14ac:dyDescent="0.35">
       <c r="C40" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Le Chat du Comté de Cheshire</v>
@@ -11013,7 +11017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C41" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Le chœur des gardiens</v>
@@ -11187,7 +11191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C42" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Lewis</v>
@@ -11361,7 +11365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C43" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>médecin</v>
@@ -11535,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C44" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Narrateur</v>
@@ -11709,7 +11713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C45" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Paul</v>
@@ -11883,7 +11887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C46" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Pierre</v>
@@ -12057,7 +12061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C47" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Prima</v>
@@ -12231,7 +12235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C48" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Rose 1</v>
@@ -12405,7 +12409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C49" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Rose 2</v>
@@ -12579,7 +12583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C50" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Rose 3</v>
@@ -12753,7 +12757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C51" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Rose 4</v>
@@ -12927,7 +12931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C52" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Violette 1</v>
@@ -13101,7 +13105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C53" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Violette 2</v>
@@ -13275,7 +13279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C54" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Violette 3</v>
@@ -13449,7 +13453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C55" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Violette 4</v>
@@ -13623,7 +13627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C56" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>prof</v>
@@ -13797,7 +13801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C57" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>élèves partie 1</v>
@@ -13971,7 +13975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C58" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>élèves partie 2</v>
@@ -14145,7 +14149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C59" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Une amie 1</v>
@@ -14319,7 +14323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C60" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Une amie 2</v>
@@ -14493,7 +14497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C61" s="21" t="s">
         <v>87</v>
       </c>
@@ -14662,7 +14666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="3:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>88</v>
       </c>
@@ -14888,49 +14892,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E991E9-352E-4E76-9D9D-14141264BC0E}">
   <dimension ref="A1:CL37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="79.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="79.81640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="7" width="18.7265625" customWidth="1"/>
     <col min="8" max="12" width="17" customWidth="1"/>
-    <col min="13" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" customWidth="1"/>
+    <col min="13" max="21" width="10.81640625" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" customWidth="1"/>
+    <col min="23" max="23" width="21.1796875" customWidth="1"/>
+    <col min="24" max="24" width="17.54296875" customWidth="1"/>
+    <col min="25" max="25" width="10.81640625" customWidth="1"/>
+    <col min="26" max="26" width="18.453125" customWidth="1"/>
     <col min="27" max="27" width="30" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" customWidth="1"/>
-    <col min="29" max="30" width="10.85546875" customWidth="1"/>
+    <col min="28" max="28" width="23.54296875" customWidth="1"/>
+    <col min="29" max="30" width="10.81640625" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="42" width="10.85546875" customWidth="1"/>
-    <col min="43" max="46" width="10.42578125" customWidth="1"/>
-    <col min="47" max="90" width="10.85546875" customWidth="1"/>
+    <col min="32" max="42" width="10.81640625" customWidth="1"/>
+    <col min="43" max="46" width="10.453125" customWidth="1"/>
+    <col min="47" max="90" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" ht="51" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="54" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>97</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>90</v>
@@ -15273,17 +15277,17 @@
         <v>Une amie 2</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A2" s="33"/>
-      <c r="B2" s="56" t="s">
-        <v>51</v>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="27" t="str">
         <f t="array" ref="C2">_xlfn.TEXTJOIN(", ",1,IF(H2:AV2=1,H$1:AV$1,""))</f>
-        <v>Dinon, Le chœur des gardiens, Paul</v>
-      </c>
-      <c r="D2" s="27">
-        <v>1</v>
+        <v>Alice de la réalité 4, Le chœur des gardiens, élèves partie 1</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0</v>
       </c>
       <c r="E2" s="27">
         <f t="array" aca="1" ref="E2" ca="1">MMULT(MMULT(H2:AV2,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H2:AV2))</f>
@@ -15291,11 +15295,11 @@
       </c>
       <c r="F2" s="27">
         <f t="shared" ref="F2:F18" si="0">SUMPRODUCT(H2:AV2,AX2:CL2)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" s="29">
         <f>SUMPRODUCT(H2:AV2,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="34">
         <v>0</v>
@@ -15307,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="34">
         <v>0</v>
@@ -15331,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="34">
         <v>0</v>
@@ -15373,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="34">
         <v>0</v>
@@ -15409,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="34">
         <v>0</v>
@@ -15424,121 +15428,121 @@
         <f t="shared" ref="AW2:AW18" si="1">SUM(H2:AV2)</f>
         <v>3</v>
       </c>
-      <c r="AX2" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="8">
-        <v>4</v>
-      </c>
-      <c r="AZ2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BA2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BB2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BC2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BD2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BF2" s="6">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="9">
+      <c r="AX2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BF2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL2" s="6">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="9">
         <v>6</v>
       </c>
-      <c r="BH2" s="5">
-        <v>5</v>
-      </c>
-      <c r="BI2" s="5">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="5">
-        <v>5</v>
-      </c>
-      <c r="BK2" s="4">
-        <v>2</v>
-      </c>
-      <c r="BL2" s="7">
-        <v>3</v>
-      </c>
-      <c r="BM2" s="5">
-        <v>5</v>
-      </c>
-      <c r="BN2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BP2" s="5">
-        <v>5</v>
-      </c>
-      <c r="BQ2" s="5">
-        <v>5</v>
-      </c>
-      <c r="BR2" s="8">
-        <v>4</v>
-      </c>
-      <c r="BS2" s="9">
+      <c r="BN2" s="9">
         <v>6</v>
       </c>
-      <c r="BT2" s="9">
-        <v>6</v>
-      </c>
-      <c r="BU2" s="9">
-        <v>6</v>
-      </c>
-      <c r="BV2" s="9">
-        <v>6</v>
-      </c>
-      <c r="BW2" s="9">
-        <v>6</v>
-      </c>
-      <c r="BX2" s="9">
-        <v>6</v>
+      <c r="BO2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW2" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX2" s="8">
+        <v>4</v>
       </c>
       <c r="BY2" s="8">
         <v>4</v>
       </c>
-      <c r="BZ2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CA2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CB2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CC2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CD2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CE2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CF2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CG2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CH2" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI2" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ2" s="53">
+      <c r="BZ2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CA2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CB2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CC2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CD2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CE2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CG2" s="8">
+        <v>4</v>
+      </c>
+      <c r="CH2" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI2" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ2" s="52">
         <v>3</v>
       </c>
       <c r="CK2">
@@ -15548,17 +15552,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A3" s="36"/>
-      <c r="B3" s="54" t="s">
-        <v>47</v>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="35" t="str">
         <f t="array" ref="C3">_xlfn.TEXTJOIN(", ",1,IF(H3:AV3=1,H$1:AV$1,""))</f>
-        <v>Dorian, Violette 1, Violette 2, Violette 3, Violette 4, prof</v>
-      </c>
-      <c r="D3" s="55">
-        <v>1</v>
+        <v>Alice de la réalité 2, Le chœur des gardiens, élèves partie 2</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
       </c>
       <c r="E3" s="27">
         <f t="array" aca="1" ref="E3" ca="1">MMULT(MMULT(H3:AV3,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H3:AV3))</f>
@@ -15566,17 +15570,17 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="29">
         <f>SUMPRODUCT(H3:AV3,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="34">
         <v>0</v>
       </c>
       <c r="I3" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="34">
         <v>0</v>
@@ -15615,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="34">
         <v>0</v>
@@ -15636,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="34">
         <v>0</v>
@@ -15669,25 +15673,25 @@
         <v>0</v>
       </c>
       <c r="AN3" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="34">
         <v>0</v>
       </c>
       <c r="AT3" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="34">
         <v>0</v>
@@ -15697,76 +15701,76 @@
       </c>
       <c r="AW3" s="35">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>3</v>
       </c>
       <c r="BF3" s="8">
         <v>4</v>
       </c>
-      <c r="BG3" s="9">
-        <v>6</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>1000</v>
+      <c r="BG3" s="5">
+        <v>5</v>
+      </c>
+      <c r="BH3" s="5">
+        <v>5</v>
       </c>
       <c r="BI3" s="5">
         <v>5</v>
       </c>
-      <c r="BJ3" s="5">
-        <v>5</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BL3" s="6">
-        <v>1</v>
+      <c r="BJ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>3</v>
       </c>
       <c r="BM3" s="7">
         <v>3</v>
       </c>
-      <c r="BN3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BO3" s="5">
-        <v>5</v>
-      </c>
-      <c r="BP3" s="8">
-        <v>4</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>1000</v>
+      <c r="BN3" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>4</v>
+      </c>
+      <c r="BR3" s="7">
+        <v>3</v>
       </c>
       <c r="BS3" s="5">
         <v>5</v>
       </c>
-      <c r="BT3" s="3">
-        <v>1000</v>
+      <c r="BT3" s="7">
+        <v>3</v>
       </c>
       <c r="BU3" s="5">
         <v>5</v>
@@ -15774,26 +15778,26 @@
       <c r="BV3" s="5">
         <v>5</v>
       </c>
-      <c r="BW3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BZ3" s="8">
-        <v>4</v>
-      </c>
-      <c r="CA3" s="8">
-        <v>4</v>
-      </c>
-      <c r="CB3" s="8">
-        <v>4</v>
-      </c>
-      <c r="CC3" s="8">
-        <v>4</v>
+      <c r="BW3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BX3" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY3" s="8">
+        <v>4</v>
+      </c>
+      <c r="BZ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="4">
+        <v>2</v>
+      </c>
+      <c r="CB3" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="4">
+        <v>2</v>
       </c>
       <c r="CD3" s="4">
         <v>2</v>
@@ -15807,13 +15811,13 @@
       <c r="CG3" s="4">
         <v>2</v>
       </c>
-      <c r="CH3" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI3" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ3" s="53">
+      <c r="CH3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3</v>
       </c>
       <c r="CK3">
@@ -15823,17 +15827,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="54" t="s">
-        <v>45</v>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="35" t="str">
         <f t="array" ref="C4">_xlfn.TEXTJOIN(", ",1,IF(H4:AV4=1,H$1:AV$1,""))</f>
-        <v>Alice des rêves 1, Alice des rêves 2, Alice des rêves 3, Alice des rêves 4, élèves partie 1</v>
-      </c>
-      <c r="D4" s="55">
-        <v>1</v>
+        <v>Alice de la réalité 1, médecin, élèves partie 1</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
       </c>
       <c r="E4" s="27">
         <f t="array" aca="1" ref="E4" ca="1">MMULT(MMULT(H4:AV4,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H4:AV4))</f>
@@ -15841,14 +15845,14 @@
       </c>
       <c r="F4" s="35">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" s="29">
         <f>SUMPRODUCT(H4:AV4,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="34">
         <v>0</v>
@@ -15860,16 +15864,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="34">
         <v>0</v>
@@ -15917,7 +15921,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="34">
         <v>0</v>
@@ -15972,123 +15976,123 @@
       </c>
       <c r="AW4" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB4" s="6">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="6">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="6">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="6">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="5">
-        <v>5</v>
-      </c>
-      <c r="BG4" s="5">
-        <v>5</v>
-      </c>
-      <c r="BH4" s="5">
-        <v>5</v>
-      </c>
-      <c r="BI4" s="8">
-        <v>4</v>
-      </c>
-      <c r="BJ4" s="8">
-        <v>4</v>
-      </c>
-      <c r="BK4" s="8">
-        <v>4</v>
-      </c>
-      <c r="BL4" s="5">
-        <v>5</v>
-      </c>
-      <c r="BM4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="6">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BP4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BR4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BS4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BT4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BU4" s="8">
-        <v>4</v>
-      </c>
-      <c r="BV4" s="5">
-        <v>5</v>
-      </c>
-      <c r="BW4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BX4" s="7">
-        <v>3</v>
-      </c>
-      <c r="BY4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BZ4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CA4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CB4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CD4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CE4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CG4" s="7">
-        <v>3</v>
-      </c>
-      <c r="CH4" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ4" s="53">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="45">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="45">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BA4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BB4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BC4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BD4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BE4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BF4" s="45">
+        <v>4</v>
+      </c>
+      <c r="BG4" s="45">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="45">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="45">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="45">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="45">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BO4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BP4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BR4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BS4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="45">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="45">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BX4" s="45">
+        <v>3</v>
+      </c>
+      <c r="BY4" s="45">
+        <v>6</v>
+      </c>
+      <c r="BZ4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CA4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CB4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CC4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CD4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CE4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CF4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CG4" s="45">
+        <v>6</v>
+      </c>
+      <c r="CH4" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="52">
         <v>3</v>
       </c>
       <c r="CK4">
@@ -16098,29 +16102,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
-      <c r="B5" s="54" t="s">
-        <v>55</v>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="35" t="str">
         <f t="array" ref="C5">_xlfn.TEXTJOIN(", ",1,IF(H5:AV5=1,H$1:AV$1,""))</f>
-        <v>La mère d’Alice, La Reine Rouge, élèves partie 1</v>
-      </c>
-      <c r="D5" s="55">
-        <v>1</v>
+        <v>Le Chat du Comté de Cheshire, Le chœur des gardiens, élèves partie 1, élèves partie 2</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
       </c>
       <c r="E5" s="27">
         <f t="array" aca="1" ref="E5" ca="1">MMULT(MMULT(H5:AV5,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H5:AV5))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="29">
         <f>SUMPRODUCT(H5:AV5,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5" s="34">
         <v>0</v>
@@ -16168,13 +16172,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="34">
         <v>0</v>
       </c>
       <c r="Y5" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="34">
         <v>0</v>
@@ -16183,10 +16187,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="34">
         <v>0</v>
@@ -16237,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="AT5" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="34">
         <v>0</v>
@@ -16247,123 +16251,123 @@
       </c>
       <c r="AW5" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AX5" s="5">
-        <v>5</v>
-      </c>
-      <c r="AY5" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BA5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BB5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BC5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BE5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BF5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BG5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BH5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BI5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BJ5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BM5" s="6">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BB5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BH5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BJ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BK5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BM5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BN5" s="7">
+        <v>3</v>
       </c>
       <c r="BO5" s="7">
         <v>3</v>
       </c>
-      <c r="BP5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BQ5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BR5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BS5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BT5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BU5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BV5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BW5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BX5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BY5" s="5">
-        <v>5</v>
-      </c>
-      <c r="BZ5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CA5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CB5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CC5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CD5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CE5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CF5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CG5" s="5">
-        <v>5</v>
-      </c>
-      <c r="CH5" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI5" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ5" s="53">
+      <c r="BP5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BQ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BV5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BW5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BX5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY5" s="4">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CA5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CB5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CC5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CD5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CE5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CF5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CG5" s="7">
+        <v>3</v>
+      </c>
+      <c r="CH5" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI5" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ5" s="52">
         <v>3</v>
       </c>
       <c r="CK5">
@@ -16373,16 +16377,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="35" t="str">
         <f t="array" ref="C6">_xlfn.TEXTJOIN(", ",1,IF(H6:AV6=1,H$1:AV$1,""))</f>
-        <v>Alice de la réalité 4, Le chœur des gardiens, élèves partie 1</v>
-      </c>
-      <c r="D6" s="55">
+        <v>Le Chapelier Fou, Le chœur des gardiens, Prima, élèves partie 2</v>
+      </c>
+      <c r="D6" s="54">
         <v>0</v>
       </c>
       <c r="E6" s="27">
@@ -16391,11 +16395,11 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="29">
         <f>SUMPRODUCT(H6:AV6,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="34">
         <v>0</v>
@@ -16407,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="34">
         <v>0</v>
@@ -16455,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="34">
         <v>0</v>
@@ -16479,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="34">
         <v>0</v>
@@ -16509,10 +16513,10 @@
         <v>0</v>
       </c>
       <c r="AS6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="34">
         <v>0</v>
@@ -16522,76 +16526,76 @@
       </c>
       <c r="AW6" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AX6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AY6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="5">
-        <v>5</v>
-      </c>
-      <c r="BA6" s="5">
-        <v>5</v>
-      </c>
-      <c r="BB6" s="7">
-        <v>3</v>
-      </c>
-      <c r="BC6" s="7">
-        <v>3</v>
-      </c>
-      <c r="BD6" s="7">
-        <v>3</v>
-      </c>
-      <c r="BE6" s="7">
-        <v>3</v>
-      </c>
-      <c r="BF6" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>6</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>6</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BE6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>5</v>
       </c>
       <c r="BG6" s="7">
         <v>3</v>
       </c>
-      <c r="BH6" s="7">
-        <v>3</v>
-      </c>
-      <c r="BI6" s="8">
-        <v>4</v>
-      </c>
-      <c r="BJ6" s="8">
-        <v>4</v>
-      </c>
-      <c r="BK6" s="8">
-        <v>4</v>
-      </c>
-      <c r="BL6" s="6">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="9">
+      <c r="BH6" s="9">
         <v>6</v>
       </c>
-      <c r="BN6" s="9">
+      <c r="BI6" s="9">
         <v>6</v>
       </c>
+      <c r="BJ6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>6</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>5</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN6" s="5">
+        <v>5</v>
+      </c>
       <c r="BO6" s="8">
         <v>4</v>
       </c>
-      <c r="BP6" s="6">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="6">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="4">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="7">
-        <v>3</v>
-      </c>
-      <c r="BT6" s="8">
-        <v>4</v>
+      <c r="BP6" s="8">
+        <v>4</v>
+      </c>
+      <c r="BQ6" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT6" s="5">
+        <v>5</v>
       </c>
       <c r="BU6" s="8">
         <v>4</v>
@@ -16599,46 +16603,46 @@
       <c r="BV6" s="8">
         <v>4</v>
       </c>
-      <c r="BW6" s="8">
-        <v>4</v>
-      </c>
-      <c r="BX6" s="8">
-        <v>4</v>
-      </c>
-      <c r="BY6" s="8">
-        <v>4</v>
-      </c>
-      <c r="BZ6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CA6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CB6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CC6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CD6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CE6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CF6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CG6" s="8">
-        <v>4</v>
-      </c>
-      <c r="CH6" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI6" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ6" s="53">
+      <c r="BW6" s="5">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="5">
+        <v>5</v>
+      </c>
+      <c r="BY6" s="5">
+        <v>5</v>
+      </c>
+      <c r="BZ6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CA6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CC6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CD6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CE6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CG6" s="5">
+        <v>5</v>
+      </c>
+      <c r="CH6" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI6" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ6" s="52">
         <v>3</v>
       </c>
       <c r="CK6">
@@ -16648,16 +16652,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="35" t="str">
         <f t="array" ref="C7">_xlfn.TEXTJOIN(", ",1,IF(H7:AV7=1,H$1:AV$1,""))</f>
-        <v>Alice de la réalité 2, Le chœur des gardiens, élèves partie 2</v>
-      </c>
-      <c r="D7" s="55">
+        <v>Alice de la réalité 3, Le chœur des gardiens, Une amie 2</v>
+      </c>
+      <c r="D7" s="54">
         <v>0</v>
       </c>
       <c r="E7" s="27">
@@ -16666,7 +16670,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="29">
         <f>SUMPRODUCT(H7:AV7,'Nb scènes par rôle'!D$17:AR$17)</f>
@@ -16676,10 +16680,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="34">
         <v>0</v>
@@ -16787,133 +16791,133 @@
         <v>0</v>
       </c>
       <c r="AT7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="34">
         <v>0</v>
       </c>
       <c r="AV7" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AX7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AZ7" s="4">
-        <v>2</v>
-      </c>
-      <c r="BA7" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BC7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BD7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BE7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BF7" s="8">
-        <v>4</v>
-      </c>
-      <c r="BG7" s="5">
-        <v>5</v>
-      </c>
-      <c r="BH7" s="5">
-        <v>5</v>
-      </c>
-      <c r="BI7" s="5">
-        <v>5</v>
-      </c>
-      <c r="BJ7" s="4">
-        <v>2</v>
+      <c r="AX7" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC7" s="5">
+        <v>5</v>
+      </c>
+      <c r="BD7" s="5">
+        <v>5</v>
+      </c>
+      <c r="BE7" s="5">
+        <v>5</v>
+      </c>
+      <c r="BF7" s="5">
+        <v>5</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ7" s="8">
+        <v>4</v>
       </c>
       <c r="BK7" s="8">
         <v>4</v>
       </c>
-      <c r="BL7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BM7" s="7">
-        <v>3</v>
+      <c r="BL7" s="5">
+        <v>5</v>
+      </c>
+      <c r="BM7" s="9">
+        <v>6</v>
       </c>
       <c r="BN7" s="8">
         <v>4</v>
       </c>
-      <c r="BO7" s="7">
-        <v>3</v>
+      <c r="BO7" s="9">
+        <v>6</v>
       </c>
       <c r="BP7" s="7">
         <v>3</v>
       </c>
-      <c r="BQ7" s="8">
-        <v>4</v>
-      </c>
-      <c r="BR7" s="7">
-        <v>3</v>
+      <c r="BQ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR7" s="8">
+        <v>4</v>
       </c>
       <c r="BS7" s="5">
         <v>5</v>
       </c>
-      <c r="BT7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BU7" s="5">
-        <v>5</v>
+      <c r="BT7" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>1000</v>
       </c>
       <c r="BV7" s="5">
         <v>5</v>
       </c>
-      <c r="BW7" s="7">
-        <v>3</v>
-      </c>
-      <c r="BX7" s="7">
-        <v>3</v>
+      <c r="BW7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="8">
+        <v>4</v>
       </c>
       <c r="BY7" s="8">
         <v>4</v>
       </c>
-      <c r="BZ7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CA7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CB7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CC7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CD7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CE7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CF7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CG7" s="4">
-        <v>2</v>
-      </c>
-      <c r="CH7" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI7" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ7" s="53">
+      <c r="BZ7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CB7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CE7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CF7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CG7" s="9">
+        <v>6</v>
+      </c>
+      <c r="CH7" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI7" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ7" s="52">
         <v>3</v>
       </c>
       <c r="CK7">
@@ -16923,16 +16927,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="54" t="s">
-        <v>13</v>
+      <c r="B8" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="35" t="str">
         <f t="array" ref="C8">_xlfn.TEXTJOIN(", ",1,IF(H8:AV8=1,H$1:AV$1,""))</f>
-        <v>Chenille, élèves partie 1</v>
-      </c>
-      <c r="D8" s="55">
+        <v>Dinon, Le chœur des gardiens, Paul</v>
+      </c>
+      <c r="D8" s="35">
         <v>1</v>
       </c>
       <c r="E8" s="27">
@@ -16941,11 +16945,11 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G8" s="29">
         <f>SUMPRODUCT(H8:AV8,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="34">
         <v>0</v>
@@ -16975,13 +16979,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="34">
         <v>0</v>
       </c>
       <c r="S8" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="34">
         <v>0</v>
@@ -17011,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="34">
         <v>0</v>
@@ -17023,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="34">
         <v>0</v>
@@ -17059,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="34">
         <v>0</v>
@@ -17072,7 +17076,7 @@
       </c>
       <c r="AW8" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="8">
         <v>4</v>
@@ -17098,65 +17102,65 @@
       <c r="BE8" s="8">
         <v>4</v>
       </c>
-      <c r="BF8" s="7">
-        <v>3</v>
-      </c>
-      <c r="BG8" s="6">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="7">
-        <v>3</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BK8" s="3">
-        <v>1000</v>
+      <c r="BF8" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BH8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>2</v>
       </c>
       <c r="BL8" s="7">
         <v>3</v>
       </c>
-      <c r="BM8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>1000</v>
+      <c r="BM8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>4</v>
       </c>
       <c r="BO8" s="3">
         <v>1000</v>
       </c>
-      <c r="BP8" s="7">
-        <v>3</v>
-      </c>
-      <c r="BQ8" s="7">
-        <v>3</v>
-      </c>
-      <c r="BR8" s="6">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BT8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BU8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BV8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BW8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BX8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BY8" s="3">
-        <v>1000</v>
+      <c r="BP8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BQ8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BT8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BU8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BV8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BW8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BX8" s="9">
+        <v>6</v>
+      </c>
+      <c r="BY8" s="8">
+        <v>4</v>
       </c>
       <c r="BZ8" s="3">
         <v>1000</v>
@@ -17182,13 +17186,13 @@
       <c r="CG8" s="3">
         <v>1000</v>
       </c>
-      <c r="CH8" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI8" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ8" s="53">
+      <c r="CH8" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI8" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ8" s="52">
         <v>3</v>
       </c>
       <c r="CK8">
@@ -17198,16 +17202,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="54" t="s">
-        <v>52</v>
+      <c r="B9" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="35" t="str">
         <f t="array" ref="C9">_xlfn.TEXTJOIN(", ",1,IF(H9:AV9=1,H$1:AV$1,""))</f>
-        <v>Dioui, Diouinon, Lewis, Pierre</v>
-      </c>
-      <c r="D9" s="35">
+        <v>Dorian, Violette 1, Violette 2, Violette 3, Violette 4, prof</v>
+      </c>
+      <c r="D9" s="54">
         <v>1</v>
       </c>
       <c r="E9" s="27">
@@ -17216,11 +17220,11 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="29">
         <f>SUMPRODUCT(H9:AV9,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="34">
         <v>0</v>
@@ -17259,13 +17263,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="34">
         <v>0</v>
@@ -17289,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="34">
         <v>0</v>
@@ -17301,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="34">
         <v>0</v>
@@ -17319,19 +17323,19 @@
         <v>0</v>
       </c>
       <c r="AN9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="34">
         <v>0</v>
@@ -17347,91 +17351,91 @@
       </c>
       <c r="AW9" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AX9" s="9">
         <v>6</v>
       </c>
-      <c r="AY9" s="9">
+      <c r="AX9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>4</v>
+      </c>
+      <c r="BG9" s="9">
         <v>6</v>
       </c>
-      <c r="AZ9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BA9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BB9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BC9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BD9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BE9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BF9" s="8">
-        <v>4</v>
-      </c>
-      <c r="BG9" s="8">
-        <v>4</v>
-      </c>
-      <c r="BH9" s="5">
-        <v>5</v>
-      </c>
-      <c r="BI9" s="8">
-        <v>4</v>
-      </c>
-      <c r="BJ9" s="7">
-        <v>3</v>
-      </c>
-      <c r="BK9" s="8">
-        <v>4</v>
-      </c>
-      <c r="BL9" s="7">
-        <v>3</v>
-      </c>
-      <c r="BM9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BN9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BO9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BP9" s="4">
-        <v>2</v>
-      </c>
-      <c r="BQ9" s="7">
-        <v>3</v>
-      </c>
-      <c r="BR9" s="8">
-        <v>4</v>
-      </c>
-      <c r="BS9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BT9" s="6">
-        <v>1</v>
-      </c>
-      <c r="BU9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BV9" s="6">
-        <v>1</v>
-      </c>
-      <c r="BW9" s="5">
-        <v>5</v>
-      </c>
-      <c r="BX9" s="9">
-        <v>6</v>
-      </c>
-      <c r="BY9" s="5">
-        <v>5</v>
+      <c r="BH9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BI9" s="5">
+        <v>5</v>
+      </c>
+      <c r="BJ9" s="5">
+        <v>5</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BL9" s="6">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="7">
+        <v>3</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BO9" s="5">
+        <v>5</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>4</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BS9" s="5">
+        <v>5</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BU9" s="5">
+        <v>5</v>
+      </c>
+      <c r="BV9" s="5">
+        <v>5</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>1000</v>
       </c>
       <c r="BZ9" s="8">
         <v>4</v>
@@ -17445,25 +17449,25 @@
       <c r="CC9" s="8">
         <v>4</v>
       </c>
-      <c r="CD9" s="8">
-        <v>4</v>
-      </c>
-      <c r="CE9" s="8">
-        <v>4</v>
-      </c>
-      <c r="CF9" s="8">
-        <v>4</v>
-      </c>
-      <c r="CG9" s="8">
-        <v>4</v>
-      </c>
-      <c r="CH9" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI9" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ9" s="53">
+      <c r="CD9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH9" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI9" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ9" s="52">
         <v>3</v>
       </c>
       <c r="CK9">
@@ -17473,17 +17477,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45" t="s">
-        <v>56</v>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="A10" s="36"/>
+      <c r="B10" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="35" t="str">
         <f t="array" ref="C10">_xlfn.TEXTJOIN(", ",1,IF(H10:AV10=1,H$1:AV$1,""))</f>
-        <v>Alice de la réalité 1, médecin, élèves partie 1</v>
-      </c>
-      <c r="D10" s="55">
-        <v>0</v>
+        <v>Alice des rêves 1, Alice des rêves 2, Alice des rêves 3, Alice des rêves 4, élèves partie 1</v>
+      </c>
+      <c r="D10" s="54">
+        <v>1</v>
       </c>
       <c r="E10" s="27">
         <f t="array" aca="1" ref="E10" ca="1">MMULT(MMULT(H10:AV10,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H10:AV10))</f>
@@ -17491,14 +17495,14 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="29">
         <f>SUMPRODUCT(H10:AV10,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H10" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="34">
         <v>0</v>
@@ -17510,16 +17514,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="34">
         <v>0</v>
@@ -17567,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="34">
         <v>0</v>
@@ -17622,123 +17626,123 @@
       </c>
       <c r="AW10" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AX10" s="45">
-        <v>6</v>
-      </c>
-      <c r="AY10" s="45">
-        <v>6</v>
-      </c>
-      <c r="AZ10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BA10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BB10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BC10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BD10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BE10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BF10" s="45">
-        <v>4</v>
-      </c>
-      <c r="BG10" s="45">
-        <v>4</v>
-      </c>
-      <c r="BH10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BI10" s="45">
-        <v>2</v>
-      </c>
-      <c r="BJ10" s="45">
-        <v>2</v>
-      </c>
-      <c r="BK10" s="45">
-        <v>2</v>
-      </c>
-      <c r="BL10" s="45">
-        <v>1</v>
-      </c>
-      <c r="BM10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BN10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BO10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BP10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BQ10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BR10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BS10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BT10" s="45">
-        <v>2</v>
-      </c>
-      <c r="BU10" s="45">
-        <v>1</v>
-      </c>
-      <c r="BV10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BW10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BX10" s="45">
-        <v>3</v>
-      </c>
-      <c r="BY10" s="45">
-        <v>6</v>
-      </c>
-      <c r="BZ10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CA10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CB10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CC10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CD10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CE10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CF10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CG10" s="45">
-        <v>6</v>
-      </c>
-      <c r="CH10" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI10" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ10" s="53">
+        <v>5</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BH10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BI10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BM10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BN10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BP10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BQ10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BR10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BT10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BU10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BW10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BX10" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BZ10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CA10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CB10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CC10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CD10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CE10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CF10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CG10" s="7">
+        <v>3</v>
+      </c>
+      <c r="CH10" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI10" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ10" s="52">
         <v>3</v>
       </c>
       <c r="CK10">
@@ -17748,29 +17752,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="54" t="s">
-        <v>41</v>
+      <c r="B11" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="35" t="str">
         <f t="array" ref="C11">_xlfn.TEXTJOIN(", ",1,IF(H11:AV11=1,H$1:AV$1,""))</f>
-        <v>Damien, Lapin</v>
-      </c>
-      <c r="D11" s="55">
+        <v>La mère d’Alice, La Reine Rouge, élèves partie 1</v>
+      </c>
+      <c r="D11" s="54">
         <v>1</v>
       </c>
       <c r="E11" s="27">
         <f t="array" aca="1" ref="E11" ca="1">MMULT(MMULT(H11:AV11,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H11:AV11))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="29">
         <f>SUMPRODUCT(H11:AV11,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11" s="34">
         <v>0</v>
@@ -17803,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="34">
         <v>0</v>
@@ -17818,16 +17822,16 @@
         <v>0</v>
       </c>
       <c r="W11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="34">
         <v>0</v>
       </c>
       <c r="Y11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="34">
         <v>0</v>
@@ -17884,7 +17888,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="34">
         <v>0</v>
@@ -17897,123 +17901,123 @@
       </c>
       <c r="AW11" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BB11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BC11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BD11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BE11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BF11" s="4">
-        <v>2</v>
-      </c>
-      <c r="BG11" s="3">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BD11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BE11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BF11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BG11" s="9">
+        <v>6</v>
       </c>
       <c r="BH11" s="5">
         <v>5</v>
       </c>
-      <c r="BI11" s="5">
-        <v>5</v>
-      </c>
-      <c r="BJ11" s="5">
-        <v>5</v>
-      </c>
-      <c r="BK11" s="5">
-        <v>5</v>
-      </c>
-      <c r="BL11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BM11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BN11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BO11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BP11" s="6">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="7">
-        <v>3</v>
-      </c>
-      <c r="BR11" s="8">
-        <v>4</v>
-      </c>
-      <c r="BS11" s="3">
-        <v>1000</v>
+      <c r="BI11" s="9">
+        <v>6</v>
+      </c>
+      <c r="BJ11" s="9">
+        <v>6</v>
+      </c>
+      <c r="BK11" s="9">
+        <v>6</v>
+      </c>
+      <c r="BL11" s="9">
+        <v>6</v>
+      </c>
+      <c r="BM11" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>2</v>
+      </c>
+      <c r="BO11" s="7">
+        <v>3</v>
+      </c>
+      <c r="BP11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BQ11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BR11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BS11" s="5">
+        <v>5</v>
       </c>
       <c r="BT11" s="9">
         <v>6</v>
       </c>
-      <c r="BU11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BV11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BW11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BX11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BY11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="BZ11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CA11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CB11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CC11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CD11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CE11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CF11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CG11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="CH11" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI11" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ11" s="53">
+      <c r="BU11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BW11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BY11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BZ11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CA11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CB11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CC11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CE11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CF11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CG11" s="5">
+        <v>5</v>
+      </c>
+      <c r="CH11" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI11" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ11" s="52">
         <v>3</v>
       </c>
       <c r="CK11">
@@ -18023,17 +18027,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
+      <c r="B12" s="53" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="35" t="str">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(", ",1,IF(H12:AV12=1,H$1:AV$1,""))</f>
-        <v>Le Chat du Comté de Cheshire, Le chœur des gardiens, élèves partie 1, élèves partie 2</v>
-      </c>
-      <c r="D12" s="55">
-        <v>0</v>
+        <v>Chenille, élèves partie 1</v>
+      </c>
+      <c r="D12" s="54">
+        <v>1</v>
       </c>
       <c r="E12" s="27">
         <f t="array" aca="1" ref="E12" ca="1">MMULT(MMULT(H12:AV12,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H12:AV12))</f>
@@ -18041,11 +18045,11 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G12" s="29">
         <f>SUMPRODUCT(H12:AV12,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12" s="34">
         <v>0</v>
@@ -18075,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="34">
         <v>0</v>
@@ -18108,10 +18112,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="34">
         <v>0</v>
@@ -18162,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="AT12" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="34">
         <v>0</v>
@@ -18172,61 +18176,61 @@
       </c>
       <c r="AW12" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AX12" s="7">
-        <v>3</v>
-      </c>
-      <c r="AY12" s="7">
-        <v>3</v>
-      </c>
-      <c r="AZ12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BA12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BB12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BC12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BD12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BE12" s="7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AZ12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BD12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BE12" s="8">
+        <v>4</v>
       </c>
       <c r="BF12" s="7">
         <v>3</v>
       </c>
-      <c r="BG12" s="7">
-        <v>3</v>
+      <c r="BG12" s="6">
+        <v>1</v>
       </c>
       <c r="BH12" s="7">
         <v>3</v>
       </c>
-      <c r="BI12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BJ12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BK12" s="7">
-        <v>3</v>
+      <c r="BI12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BJ12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>1000</v>
       </c>
       <c r="BL12" s="7">
         <v>3</v>
       </c>
-      <c r="BM12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BN12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BO12" s="7">
-        <v>3</v>
+      <c r="BM12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BN12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>1000</v>
       </c>
       <c r="BP12" s="7">
         <v>3</v>
@@ -18234,61 +18238,61 @@
       <c r="BQ12" s="7">
         <v>3</v>
       </c>
-      <c r="BR12" s="4">
-        <v>2</v>
-      </c>
-      <c r="BS12" s="6">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BU12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BV12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BW12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BX12" s="7">
-        <v>3</v>
-      </c>
-      <c r="BY12" s="4">
-        <v>2</v>
-      </c>
-      <c r="BZ12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CA12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CB12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CC12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CD12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CE12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CF12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CG12" s="7">
-        <v>3</v>
-      </c>
-      <c r="CH12" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI12" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ12" s="53">
+      <c r="BR12" s="6">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BV12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BW12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BX12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BY12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BZ12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CA12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CB12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CC12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CD12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CE12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CF12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CG12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CH12" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI12" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ12" s="52">
         <v>3</v>
       </c>
       <c r="CK12">
@@ -18298,17 +18302,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
+      <c r="B13" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="35" t="str">
         <f t="array" ref="C13">_xlfn.TEXTJOIN(", ",1,IF(H13:AV13=1,H$1:AV$1,""))</f>
-        <v>Le Chapelier Fou, Le chœur des gardiens, Prima, élèves partie 2</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0</v>
+        <v>Dioui, Diouinon, Lewis, Pierre</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1</v>
       </c>
       <c r="E13" s="27">
         <f t="array" aca="1" ref="E13" ca="1">MMULT(MMULT(H13:AV13,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H13:AV13))</f>
@@ -18320,7 +18324,7 @@
       </c>
       <c r="G13" s="29">
         <f>SUMPRODUCT(H13:AV13,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" s="34">
         <v>0</v>
@@ -18359,10 +18363,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="34">
         <v>0</v>
@@ -18380,16 +18384,16 @@
         <v>0</v>
       </c>
       <c r="AA13" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="34">
         <v>0</v>
       </c>
       <c r="AC13" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="34">
         <v>0</v>
@@ -18401,10 +18405,10 @@
         <v>0</v>
       </c>
       <c r="AH13" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="34">
         <v>0</v>
@@ -18437,7 +18441,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="34">
         <v>0</v>
@@ -18473,97 +18477,97 @@
       <c r="BE13" s="9">
         <v>6</v>
       </c>
-      <c r="BF13" s="5">
-        <v>5</v>
-      </c>
-      <c r="BG13" s="7">
-        <v>3</v>
-      </c>
-      <c r="BH13" s="9">
+      <c r="BF13" s="8">
+        <v>4</v>
+      </c>
+      <c r="BG13" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH13" s="5">
+        <v>5</v>
+      </c>
+      <c r="BI13" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ13" s="7">
+        <v>3</v>
+      </c>
+      <c r="BK13" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL13" s="7">
+        <v>3</v>
+      </c>
+      <c r="BM13" s="9">
         <v>6</v>
       </c>
-      <c r="BI13" s="9">
+      <c r="BN13" s="9">
         <v>6</v>
       </c>
-      <c r="BJ13" s="9">
+      <c r="BO13" s="9">
         <v>6</v>
       </c>
-      <c r="BK13" s="9">
+      <c r="BP13" s="4">
+        <v>2</v>
+      </c>
+      <c r="BQ13" s="7">
+        <v>3</v>
+      </c>
+      <c r="BR13" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS13" s="9">
         <v>6</v>
       </c>
-      <c r="BL13" s="5">
-        <v>5</v>
-      </c>
-      <c r="BM13" s="8">
-        <v>4</v>
-      </c>
-      <c r="BN13" s="5">
-        <v>5</v>
-      </c>
-      <c r="BO13" s="8">
-        <v>4</v>
-      </c>
-      <c r="BP13" s="8">
-        <v>4</v>
-      </c>
-      <c r="BQ13" s="4">
-        <v>2</v>
-      </c>
-      <c r="BR13" s="6">
-        <v>1</v>
-      </c>
-      <c r="BS13" s="8">
-        <v>4</v>
-      </c>
-      <c r="BT13" s="5">
-        <v>5</v>
-      </c>
-      <c r="BU13" s="8">
-        <v>4</v>
-      </c>
-      <c r="BV13" s="8">
-        <v>4</v>
+      <c r="BT13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="9">
+        <v>6</v>
+      </c>
+      <c r="BV13" s="6">
+        <v>1</v>
       </c>
       <c r="BW13" s="5">
         <v>5</v>
       </c>
-      <c r="BX13" s="5">
-        <v>5</v>
+      <c r="BX13" s="9">
+        <v>6</v>
       </c>
       <c r="BY13" s="5">
         <v>5</v>
       </c>
-      <c r="BZ13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CA13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CB13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CC13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CD13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CE13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CF13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CG13" s="5">
-        <v>5</v>
-      </c>
-      <c r="CH13" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI13" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ13" s="53">
+      <c r="BZ13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CA13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CB13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CC13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CD13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CE13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CF13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CG13" s="8">
+        <v>4</v>
+      </c>
+      <c r="CH13" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI13" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ13" s="52">
         <v>3</v>
       </c>
       <c r="CK13">
@@ -18573,16 +18577,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
-      <c r="B14" s="54" t="s">
-        <v>42</v>
+      <c r="B14" s="53" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="35" t="str">
         <f t="array" ref="C14">_xlfn.TEXTJOIN(", ",1,IF(H14:AV14=1,H$1:AV$1,""))</f>
-        <v>Capitaine Dodo, Le chœur des gardiens, élèves partie 1</v>
-      </c>
-      <c r="D14" s="55">
+        <v>Damien, Lapin</v>
+      </c>
+      <c r="D14" s="54">
         <v>1</v>
       </c>
       <c r="E14" s="27">
@@ -18591,11 +18595,11 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="29">
         <f>SUMPRODUCT(H14:AV14,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="34">
         <v>0</v>
@@ -18622,13 +18626,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="34">
         <v>0</v>
       </c>
       <c r="R14" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="34">
         <v>0</v>
@@ -18652,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="34">
         <v>0</v>
@@ -18661,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="34">
         <v>0</v>
@@ -18709,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="34">
         <v>0</v>
@@ -18722,123 +18726,123 @@
       </c>
       <c r="AW14" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AX14" s="7">
-        <v>3</v>
-      </c>
-      <c r="AY14" s="7">
-        <v>3</v>
-      </c>
-      <c r="AZ14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BA14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BB14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BC14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BD14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BE14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BF14" s="6">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BH14" s="4">
-        <v>2</v>
-      </c>
-      <c r="BI14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BJ14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BK14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BL14" s="6">
-        <v>1</v>
-      </c>
-      <c r="BM14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BN14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BO14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BP14" s="7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BF14" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BH14" s="5">
+        <v>5</v>
+      </c>
+      <c r="BI14" s="5">
+        <v>5</v>
+      </c>
+      <c r="BJ14" s="5">
+        <v>5</v>
+      </c>
+      <c r="BK14" s="5">
+        <v>5</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BN14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BP14" s="6">
+        <v>1</v>
       </c>
       <c r="BQ14" s="7">
         <v>3</v>
       </c>
-      <c r="BR14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BS14" s="6">
-        <v>1</v>
-      </c>
-      <c r="BT14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BU14" s="4">
-        <v>2</v>
-      </c>
-      <c r="BV14" s="4">
-        <v>2</v>
-      </c>
-      <c r="BW14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BX14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BY14" s="7">
-        <v>3</v>
-      </c>
-      <c r="BZ14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CA14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CB14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CC14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CD14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CE14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CF14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CG14" s="7">
-        <v>3</v>
-      </c>
-      <c r="CH14" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI14" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ14" s="53">
+      <c r="BR14" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BT14" s="9">
+        <v>6</v>
+      </c>
+      <c r="BU14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BV14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BW14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BX14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BY14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BZ14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CA14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CB14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CC14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CD14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CE14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CF14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CG14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="CH14" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI14" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ14" s="52">
         <v>3</v>
       </c>
       <c r="CK14">
@@ -18848,16 +18852,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
-      <c r="B15" s="54" t="s">
-        <v>53</v>
+      <c r="B15" s="53" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="35" t="str">
         <f t="array" ref="C15">_xlfn.TEXTJOIN(", ",1,IF(H15:AV15=1,H$1:AV$1,""))</f>
-        <v>Le chœur des gardiens, Narrateur, élèves partie 2</v>
-      </c>
-      <c r="D15" s="55">
+        <v>Capitaine Dodo, Le chœur des gardiens, élèves partie 1</v>
+      </c>
+      <c r="D15" s="54">
         <v>1</v>
       </c>
       <c r="E15" s="27">
@@ -18866,11 +18870,11 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G15" s="29">
         <f>SUMPRODUCT(H15:AV15,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" s="34">
         <v>0</v>
@@ -18897,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="34">
         <v>0</v>
@@ -18945,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="34">
         <v>0</v>
@@ -18984,10 +18988,10 @@
         <v>0</v>
       </c>
       <c r="AS15" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="34">
         <v>0</v>
@@ -18999,121 +19003,121 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AX15" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY15" s="8">
-        <v>4</v>
-      </c>
-      <c r="AZ15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BA15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BB15" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC15" s="4">
-        <v>2</v>
-      </c>
-      <c r="BD15" s="4">
-        <v>2</v>
-      </c>
-      <c r="BE15" s="4">
-        <v>2</v>
-      </c>
-      <c r="BF15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BG15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BH15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BI15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BJ15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BK15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BL15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BM15" s="6">
-        <v>1</v>
+      <c r="AX15" s="7">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BB15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BC15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BD15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BF15" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BJ15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BK15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BL15" s="6">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="7">
+        <v>3</v>
       </c>
       <c r="BN15" s="7">
         <v>3</v>
       </c>
-      <c r="BO15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BP15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BQ15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BR15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BS15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BT15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BU15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BV15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BW15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BX15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BY15" s="8">
-        <v>4</v>
-      </c>
-      <c r="BZ15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CA15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CB15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CC15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CD15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CE15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CF15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CG15" s="8">
-        <v>4</v>
-      </c>
-      <c r="CH15" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI15" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ15" s="53">
+      <c r="BO15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BP15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BQ15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BR15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS15" s="6">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BU15" s="4">
+        <v>2</v>
+      </c>
+      <c r="BV15" s="4">
+        <v>2</v>
+      </c>
+      <c r="BW15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BX15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BZ15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CA15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CB15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CC15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CD15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CE15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CF15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CG15" s="7">
+        <v>3</v>
+      </c>
+      <c r="CH15" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI15" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ15" s="52">
         <v>3</v>
       </c>
       <c r="CK15">
@@ -19123,16 +19127,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
-      <c r="B16" s="54" t="s">
-        <v>49</v>
+      <c r="B16" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="35" t="str">
         <f t="array" ref="C16">_xlfn.TEXTJOIN(", ",1,IF(H16:AV16=1,H$1:AV$1,""))</f>
-        <v>La Princesse Rouge, élèves partie 1, élèves partie 2</v>
-      </c>
-      <c r="D16" s="35">
+        <v>Le chœur des gardiens, Narrateur, élèves partie 2</v>
+      </c>
+      <c r="D16" s="54">
         <v>1</v>
       </c>
       <c r="E16" s="27">
@@ -19141,11 +19145,11 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="29">
         <f>SUMPRODUCT(H16:AV16,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="34">
         <v>0</v>
@@ -19196,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="34">
         <v>0</v>
@@ -19211,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="34">
         <v>0</v>
@@ -19220,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="34">
         <v>0</v>
@@ -19259,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="34">
         <v>1</v>
@@ -19274,32 +19278,32 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AX16" s="9">
-        <v>6</v>
-      </c>
-      <c r="AY16" s="9">
-        <v>6</v>
-      </c>
-      <c r="AZ16" s="9">
-        <v>6</v>
-      </c>
-      <c r="BA16" s="9">
-        <v>6</v>
-      </c>
-      <c r="BB16" s="9">
-        <v>6</v>
-      </c>
-      <c r="BC16" s="9">
-        <v>6</v>
-      </c>
-      <c r="BD16" s="9">
-        <v>6</v>
-      </c>
-      <c r="BE16" s="9">
-        <v>6</v>
-      </c>
-      <c r="BF16" s="3">
-        <v>1000</v>
+      <c r="AX16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="8">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF16" s="8">
+        <v>4</v>
       </c>
       <c r="BG16" s="8">
         <v>4</v>
@@ -19307,14 +19311,14 @@
       <c r="BH16" s="8">
         <v>4</v>
       </c>
-      <c r="BI16" s="5">
-        <v>5</v>
-      </c>
-      <c r="BJ16" s="5">
-        <v>5</v>
-      </c>
-      <c r="BK16" s="5">
-        <v>5</v>
+      <c r="BI16" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ16" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK16" s="8">
+        <v>4</v>
       </c>
       <c r="BL16" s="8">
         <v>4</v>
@@ -19322,26 +19326,26 @@
       <c r="BM16" s="6">
         <v>1</v>
       </c>
-      <c r="BN16" s="8">
-        <v>4</v>
-      </c>
-      <c r="BO16" s="6">
-        <v>1</v>
+      <c r="BN16" s="7">
+        <v>3</v>
+      </c>
+      <c r="BO16" s="8">
+        <v>4</v>
       </c>
       <c r="BP16" s="8">
         <v>4</v>
       </c>
-      <c r="BQ16" s="7">
-        <v>3</v>
+      <c r="BQ16" s="8">
+        <v>4</v>
       </c>
       <c r="BR16" s="8">
         <v>4</v>
       </c>
-      <c r="BS16" s="4">
-        <v>2</v>
-      </c>
-      <c r="BT16" s="9">
-        <v>6</v>
+      <c r="BS16" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT16" s="8">
+        <v>4</v>
       </c>
       <c r="BU16" s="8">
         <v>4</v>
@@ -19349,46 +19353,46 @@
       <c r="BV16" s="8">
         <v>4</v>
       </c>
-      <c r="BW16" s="5">
-        <v>5</v>
-      </c>
-      <c r="BX16" s="5">
-        <v>5</v>
+      <c r="BW16" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX16" s="8">
+        <v>4</v>
       </c>
       <c r="BY16" s="8">
         <v>4</v>
       </c>
-      <c r="BZ16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CA16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CB16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CC16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CD16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CE16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CF16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CG16" s="5">
-        <v>5</v>
-      </c>
-      <c r="CH16" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI16" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ16" s="53">
+      <c r="BZ16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CA16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CB16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CC16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CD16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CE16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CF16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CG16" s="8">
+        <v>4</v>
+      </c>
+      <c r="CH16" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI16" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ16" s="52">
         <v>3</v>
       </c>
       <c r="CK16">
@@ -19398,16 +19402,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
-      <c r="B17" s="54" t="s">
-        <v>43</v>
+      <c r="B17" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="35" t="str">
         <f t="array" ref="C17">_xlfn.TEXTJOIN(", ",1,IF(H17:AV17=1,H$1:AV$1,""))</f>
-        <v>Rose 1, Rose 2, Rose 3, Rose 4, élèves partie 2, Une amie 1</v>
-      </c>
-      <c r="D17" s="55">
+        <v>La Princesse Rouge, élèves partie 1, élèves partie 2</v>
+      </c>
+      <c r="D17" s="35">
         <v>1</v>
       </c>
       <c r="E17" s="27">
@@ -19420,7 +19424,7 @@
       </c>
       <c r="G17" s="29">
         <f>SUMPRODUCT(H17:AV17,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17" s="34">
         <v>0</v>
@@ -19471,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="34">
         <v>0</v>
@@ -19507,16 +19511,16 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="34">
         <v>0</v>
@@ -19534,47 +19538,47 @@
         <v>0</v>
       </c>
       <c r="AS17" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="34">
         <v>1</v>
       </c>
       <c r="AU17" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="34">
         <v>0</v>
       </c>
       <c r="AW17" s="35">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AX17" s="9">
         <v>6</v>
       </c>
-      <c r="AX17" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY17" s="8">
-        <v>4</v>
-      </c>
-      <c r="AZ17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BA17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BB17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BC17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BD17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BE17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BF17" s="8">
-        <v>4</v>
+      <c r="AY17" s="9">
+        <v>6</v>
+      </c>
+      <c r="AZ17" s="9">
+        <v>6</v>
+      </c>
+      <c r="BA17" s="9">
+        <v>6</v>
+      </c>
+      <c r="BB17" s="9">
+        <v>6</v>
+      </c>
+      <c r="BC17" s="9">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="9">
+        <v>6</v>
+      </c>
+      <c r="BE17" s="9">
+        <v>6</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>1000</v>
       </c>
       <c r="BG17" s="8">
         <v>4</v>
@@ -19582,41 +19586,41 @@
       <c r="BH17" s="8">
         <v>4</v>
       </c>
-      <c r="BI17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BJ17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BK17" s="8">
-        <v>4</v>
+      <c r="BI17" s="5">
+        <v>5</v>
+      </c>
+      <c r="BJ17" s="5">
+        <v>5</v>
+      </c>
+      <c r="BK17" s="5">
+        <v>5</v>
       </c>
       <c r="BL17" s="8">
         <v>4</v>
       </c>
-      <c r="BM17" s="8">
-        <v>4</v>
+      <c r="BM17" s="6">
+        <v>1</v>
       </c>
       <c r="BN17" s="8">
         <v>4</v>
       </c>
-      <c r="BO17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BP17" s="4">
-        <v>2</v>
-      </c>
-      <c r="BQ17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BR17" s="7">
-        <v>3</v>
-      </c>
-      <c r="BS17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BT17" s="8">
-        <v>4</v>
+      <c r="BO17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP17" s="8">
+        <v>4</v>
+      </c>
+      <c r="BQ17" s="7">
+        <v>3</v>
+      </c>
+      <c r="BR17" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS17" s="4">
+        <v>2</v>
+      </c>
+      <c r="BT17" s="9">
+        <v>6</v>
       </c>
       <c r="BU17" s="8">
         <v>4</v>
@@ -19624,46 +19628,46 @@
       <c r="BV17" s="8">
         <v>4</v>
       </c>
-      <c r="BW17" s="8">
-        <v>4</v>
-      </c>
-      <c r="BX17" s="8">
-        <v>4</v>
+      <c r="BW17" s="5">
+        <v>5</v>
+      </c>
+      <c r="BX17" s="5">
+        <v>5</v>
       </c>
       <c r="BY17" s="8">
         <v>4</v>
       </c>
-      <c r="BZ17" s="6">
-        <v>1</v>
-      </c>
-      <c r="CA17" s="6">
-        <v>1</v>
-      </c>
-      <c r="CB17" s="6">
-        <v>1</v>
-      </c>
-      <c r="CC17" s="6">
-        <v>1</v>
-      </c>
-      <c r="CD17" s="8">
-        <v>4</v>
-      </c>
-      <c r="CE17" s="8">
-        <v>4</v>
-      </c>
-      <c r="CF17" s="8">
-        <v>4</v>
-      </c>
-      <c r="CG17" s="8">
-        <v>4</v>
-      </c>
-      <c r="CH17" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI17" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ17" s="53">
+      <c r="BZ17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CA17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CB17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CC17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CD17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CE17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CF17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CG17" s="5">
+        <v>5</v>
+      </c>
+      <c r="CH17" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI17" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ17" s="52">
         <v>3</v>
       </c>
       <c r="CK17">
@@ -19673,17 +19677,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
-      <c r="B18" s="46" t="s">
-        <v>50</v>
+      <c r="B18" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="37" t="str">
         <f t="array" ref="C18">_xlfn.TEXTJOIN(", ",1,IF(H18:AV18=1,H$1:AV$1,""))</f>
-        <v>Alice de la réalité 3, Le chœur des gardiens, Une amie 2</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0</v>
+        <v>Rose 1, Rose 2, Rose 3, Rose 4, élèves partie 2, Une amie 1</v>
+      </c>
+      <c r="D18" s="54">
+        <v>1</v>
       </c>
       <c r="E18" s="27">
         <f t="array" aca="1" ref="E18" ca="1">MMULT(MMULT(H18:AV18,'Nb scènes par rôle'!D$20:AR$60), TRANSPOSE(H18:AV18))</f>
@@ -19691,11 +19695,11 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="29">
         <f>SUMPRODUCT(H18:AV18,'Nb scènes par rôle'!D$17:AR$17)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18" s="34">
         <v>0</v>
@@ -19704,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="34">
         <v>0</v>
@@ -19761,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="34">
         <v>0</v>
@@ -19782,16 +19786,16 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="34">
         <v>0</v>
@@ -19812,133 +19816,133 @@
         <v>0</v>
       </c>
       <c r="AT18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AX18" s="48">
-        <v>4</v>
-      </c>
-      <c r="AY18" s="48">
-        <v>4</v>
-      </c>
-      <c r="AZ18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BA18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BB18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BC18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BD18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BE18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BF18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BG18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BH18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BI18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BJ18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BK18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BL18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BM18" s="49">
         <v>6</v>
       </c>
-      <c r="BN18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BO18" s="49">
-        <v>6</v>
+      <c r="AX18" s="47">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="47">
+        <v>4</v>
+      </c>
+      <c r="AZ18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BA18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BB18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BC18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BD18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BE18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BF18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BG18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BH18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BI18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BJ18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BK18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BL18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BM18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BN18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BO18" s="47">
+        <v>4</v>
       </c>
       <c r="BP18" s="52">
-        <v>3</v>
-      </c>
-      <c r="BQ18" s="53">
-        <v>2</v>
-      </c>
-      <c r="BR18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BS18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BT18" s="51">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BQ18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BR18" s="51">
+        <v>3</v>
+      </c>
+      <c r="BS18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BT18" s="47">
+        <v>4</v>
       </c>
       <c r="BU18" s="47">
-        <v>1000</v>
-      </c>
-      <c r="BV18" s="50">
-        <v>5</v>
-      </c>
-      <c r="BW18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BX18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BY18" s="48">
-        <v>4</v>
-      </c>
-      <c r="BZ18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CA18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CB18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CC18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CD18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CE18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CF18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CG18" s="49">
-        <v>6</v>
-      </c>
-      <c r="CH18" s="53">
-        <v>3</v>
-      </c>
-      <c r="CI18" s="53">
-        <v>3</v>
-      </c>
-      <c r="CJ18" s="53">
+        <v>4</v>
+      </c>
+      <c r="BV18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BW18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BX18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BY18" s="47">
+        <v>4</v>
+      </c>
+      <c r="BZ18" s="50">
+        <v>1</v>
+      </c>
+      <c r="CA18" s="50">
+        <v>1</v>
+      </c>
+      <c r="CB18" s="50">
+        <v>1</v>
+      </c>
+      <c r="CC18" s="50">
+        <v>1</v>
+      </c>
+      <c r="CD18" s="47">
+        <v>4</v>
+      </c>
+      <c r="CE18" s="47">
+        <v>4</v>
+      </c>
+      <c r="CF18" s="47">
+        <v>4</v>
+      </c>
+      <c r="CG18" s="47">
+        <v>4</v>
+      </c>
+      <c r="CH18" s="52">
+        <v>3</v>
+      </c>
+      <c r="CI18" s="52">
+        <v>3</v>
+      </c>
+      <c r="CJ18" s="52">
         <v>3</v>
       </c>
       <c r="CK18">
@@ -19948,7 +19952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:90" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>94</v>
       </c>
@@ -20045,7 +20049,7 @@
       <c r="CI19" s="35"/>
       <c r="CJ19" s="35"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -20137,7 +20141,7 @@
       <c r="CI20" s="35"/>
       <c r="CJ20" s="35"/>
     </row>
-    <row r="21" spans="1:90" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
         <v>95</v>
       </c>
@@ -20354,9 +20358,119 @@
       <c r="CI21" s="35"/>
       <c r="CJ21" s="35"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="G22" s="35"/>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
       <c r="AR22">
         <v>1</v>
       </c>
@@ -20364,7 +20478,7 @@
         <v>8</v>
       </c>
       <c r="AT22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22">
         <v>1</v>
@@ -20373,7 +20487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -20386,7 +20500,7 @@
         <v>20169</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.35">
       <c r="B28">
         <f>COUNT($H$2:$K$11,$S$2:$U$11,$X$2:$X$11,$AA$2:$AI$11,$AU$2:$AV$11)</f>
         <v>190</v>
@@ -20396,7 +20510,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.35">
       <c r="B29" t="b">
         <f t="array" ref="B29">($AU$2:$AV$11=0)+($AU$2:$AV$11=1)=1</f>
         <v>1</v>
@@ -20406,7 +20520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.35">
       <c r="B30" t="b">
         <f t="array" ref="B30">$AW$2:$AW$18&gt;=1</f>
         <v>1</v>
@@ -20416,7 +20530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.35">
       <c r="B31" t="b">
         <f t="array" ref="B31">$H$21:$AV$21=1</f>
         <v>1</v>
@@ -20426,7 +20540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.35">
       <c r="B32" t="b">
         <f t="array" ref="B32">($H$2:$K$11=0)+($H$2:$K$11=1)=1</f>
         <v>1</v>
@@ -20436,7 +20550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="b">
         <f t="array" ref="B33">($S$2:$U$11=0)+($S$2:$U$11=1)=1</f>
         <v>1</v>
@@ -20446,7 +20560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" t="b">
         <f t="array" ref="B34">($X$2:$X$11=0)+($X$2:$X$11=1)=1</f>
         <v>1</v>
@@ -20456,7 +20570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="b">
         <f t="array" ref="B35">($AA$2:$AI$11=0)+($AA$2:$AI$11=1)=1</f>
         <v>1</v>
@@ -20466,7 +20580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <f>{32767;32767;0.000001;0.01;FALSE;FALSE;FALSE;1;2;1;0.0001;TRUE}</f>
         <v>32767</v>
@@ -20476,7 +20590,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <f>{0;0;1;100;0;FALSE;FALSE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
@@ -20487,8 +20601,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL18">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL22">
+    <sortCondition ref="D2"/>
   </sortState>
   <conditionalFormatting sqref="E2:E19">
     <cfRule type="colorScale" priority="4">
